--- a/Secondo Semestre/Organizzazione Aziendale/progetto/dati.xlsx
+++ b/Secondo Semestre/Organizzazione Aziendale/progetto/dati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ale\Documents\GitHub\primo_anno\Secondo Semestre\Organizzazione Aziendale\progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alema\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB42BD-2E91-462C-9A3E-1A15FBB3F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3BE45-8F53-429B-BC8F-4E252A1E56CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C8B29CD-F578-46B8-A4AF-CDFB73EC4AA1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{6C8B29CD-F578-46B8-A4AF-CDFB73EC4AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>Film</t>
   </si>
@@ -267,14 +267,121 @@
   </si>
   <si>
     <t>Nickelodeon Kids Choice Award, Young Artist Award</t>
+  </si>
+  <si>
+    <t>I ragazzi della 56ª strada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Cruise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralph Macchio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diane Lane </t>
+  </si>
+  <si>
+    <t>Matt Dilion</t>
+  </si>
+  <si>
+    <t>Melissa Kent,Anne Goursaud</t>
+  </si>
+  <si>
+    <t>Zoetrope Studios</t>
+  </si>
+  <si>
+    <t>Kathleen Rowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton Club </t>
+  </si>
+  <si>
+    <t>Nicolas Cage</t>
+  </si>
+  <si>
+    <t>Richard Gere</t>
+  </si>
+  <si>
+    <t>Gregory Hines</t>
+  </si>
+  <si>
+    <t>Richard Sylbert</t>
+  </si>
+  <si>
+    <t>American Zoetrope, Zoetrope Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Barry </t>
+  </si>
+  <si>
+    <t>William Kennedy,Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Oscar, Golden Globe</t>
+  </si>
+  <si>
+    <t>Il Padrino - Parte II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Pacino </t>
+  </si>
+  <si>
+    <t>Robert De Niro</t>
+  </si>
+  <si>
+    <t>John Cazale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barry Malkin </t>
+  </si>
+  <si>
+    <t>Paramount Pictures, Coppola Company</t>
+  </si>
+  <si>
+    <t>Nino Rota, Carmine Coppola</t>
+  </si>
+  <si>
+    <t>Drammatico, Gangster</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola, Mario Puzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Padrino - Parte III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diane Keaton </t>
+  </si>
+  <si>
+    <t>Andy Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talia Shire </t>
+  </si>
+  <si>
+    <t>Paramount Pictures, Zoetrope Studios</t>
+  </si>
+  <si>
+    <t>Carmine Coppola, Nino Rota</t>
+  </si>
+  <si>
+    <t>Drammatico, Giallo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -302,10 +409,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,326 +734,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFE7094-F7B5-4C55-B7ED-D3618143C7D3}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="105" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="9" width="17.54296875" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
-    <col min="11" max="11" width="26.08984375" customWidth="1"/>
-    <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" customWidth="1"/>
-    <col min="14" max="14" width="54.90625" customWidth="1"/>
+    <col min="5" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>1972</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1992</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1997</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1979</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1987</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1996</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1983</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1974</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1990</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
